--- a/src/test/java/com/bank/Testdata/fb.xlsx
+++ b/src/test/java/com/bank/Testdata/fb.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Solution1\Rank\src\test\java\com\bank\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897C6790-41A9-4151-A552-312B6FE21872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D83C9A-3E1B-4149-B3C2-8987462423AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{5AFDF97E-9F18-4E87-A363-3DB92FBF8F25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5AFDF97E-9F18-4E87-A363-3DB92FBF8F25}"/>
   </bookViews>
   <sheets>
     <sheet name="Invalid" sheetId="1" r:id="rId1"/>
     <sheet name="valid" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>username</t>
   </si>
@@ -122,6 +123,78 @@
   </si>
   <si>
     <t>skkdjxjxkkkz</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>job title</t>
+  </si>
+  <si>
+    <t>hsjsjjjsjs</t>
+  </si>
+  <si>
+    <t>sjjsjjsjsjjsjs</t>
+  </si>
+  <si>
+    <t>somskkksks</t>
+  </si>
+  <si>
+    <t>jshhsjsxk</t>
+  </si>
+  <si>
+    <t>lsjjshhjkskks</t>
+  </si>
+  <si>
+    <t>isosjsjsjjs</t>
+  </si>
+  <si>
+    <t>soojsjskksk</t>
+  </si>
+  <si>
+    <t>iishsiwoosks</t>
+  </si>
+  <si>
+    <t>isosnnmms</t>
+  </si>
+  <si>
+    <t>hsksoskllzls</t>
+  </si>
+  <si>
+    <t>ushuoxkkx</t>
+  </si>
+  <si>
+    <t>ushkkskkss</t>
+  </si>
+  <si>
+    <t>uhskklallsisi</t>
+  </si>
+  <si>
+    <t>suuskhhshsj</t>
+  </si>
+  <si>
+    <t>kdls;;s</t>
+  </si>
+  <si>
+    <t>ieisiidld</t>
+  </si>
+  <si>
+    <t>lskkdkkd</t>
+  </si>
+  <si>
+    <t>ooeosls</t>
+  </si>
+  <si>
+    <t>kkskks</t>
+  </si>
+  <si>
+    <t>oeooeod</t>
+  </si>
+  <si>
+    <t>slllsls</t>
   </si>
 </sst>
 </file>
@@ -595,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD2B8E8-B231-4305-B70F-838BF87A029C}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -692,4 +765,112 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8256A17F-1E32-42D2-8DAB-EB9AF5B22BD1}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/com/bank/Testdata/fb.xlsx
+++ b/src/test/java/com/bank/Testdata/fb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Solution1\Rank\src\test\java\com\bank\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D83C9A-3E1B-4149-B3C2-8987462423AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226F0095-7B24-408D-98CB-EF1D9793C791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5AFDF97E-9F18-4E87-A363-3DB92FBF8F25}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="valid" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>username</t>
   </si>
@@ -125,76 +126,103 @@
     <t>skkdjxjxkkkz</t>
   </si>
   <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>last name</t>
-  </si>
-  <si>
-    <t>job title</t>
-  </si>
-  <si>
     <t>hsjsjjjsjs</t>
   </si>
   <si>
-    <t>sjjsjjsjsjjsjs</t>
-  </si>
-  <si>
     <t>somskkksks</t>
   </si>
   <si>
-    <t>jshhsjsxk</t>
-  </si>
-  <si>
     <t>lsjjshhjkskks</t>
   </si>
   <si>
-    <t>isosjsjsjjs</t>
-  </si>
-  <si>
     <t>soojsjskksk</t>
   </si>
   <si>
-    <t>iishsiwoosks</t>
-  </si>
-  <si>
     <t>isosnnmms</t>
   </si>
   <si>
-    <t>hsksoskllzls</t>
-  </si>
-  <si>
     <t>ushuoxkkx</t>
   </si>
   <si>
-    <t>ushkkskkss</t>
-  </si>
-  <si>
     <t>uhskklallsisi</t>
   </si>
   <si>
-    <t>suuskhhshsj</t>
-  </si>
-  <si>
-    <t>kdls;;s</t>
-  </si>
-  <si>
-    <t>ieisiidld</t>
-  </si>
-  <si>
-    <t>lskkdkkd</t>
-  </si>
-  <si>
-    <t>ooeosls</t>
-  </si>
-  <si>
-    <t>kkskks</t>
-  </si>
-  <si>
-    <t>oeooeod</t>
-  </si>
-  <si>
-    <t>slllsls</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Dob date</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>yyyy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add </t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state </t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>jjdjd</t>
+  </si>
+  <si>
+    <t>djjdjjd</t>
+  </si>
+  <si>
+    <t>jjdjjdjjd</t>
+  </si>
+  <si>
+    <t>djjjdjdjjd</t>
+  </si>
+  <si>
+    <t>jdjjdjdjjd</t>
+  </si>
+  <si>
+    <t>jjdjjjj</t>
+  </si>
+  <si>
+    <t>sjjsjsjjsjsj</t>
+  </si>
+  <si>
+    <t>hyd</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>ggggs</t>
+  </si>
+  <si>
+    <t>klshsyys</t>
+  </si>
+  <si>
+    <t>iiiiisueu</t>
+  </si>
+  <si>
+    <t>jjwjwjjwjjw</t>
+  </si>
+  <si>
+    <t>wuuuw</t>
+  </si>
+  <si>
+    <t>wjjjwjjw</t>
+  </si>
+  <si>
+    <t>whwwuu</t>
+  </si>
+  <si>
+    <t>mnumber</t>
   </si>
 </sst>
 </file>
@@ -769,10 +797,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8256A17F-1E32-42D2-8DAB-EB9AF5B22BD1}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,97 +808,279 @@
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1981</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2">
+        <v>457645</v>
+      </c>
+      <c r="I2">
+        <v>9865471236</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1981</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3">
+        <v>457645</v>
+      </c>
+      <c r="I3">
+        <v>9865471236</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1981</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4">
+        <v>457645</v>
+      </c>
+      <c r="I4">
+        <v>9865471236</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1981</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5">
+        <v>457645</v>
+      </c>
+      <c r="I5">
+        <v>9865471236</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1981</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6">
+        <v>457645</v>
+      </c>
+      <c r="I6">
+        <v>9865471236</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1981</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7">
+        <v>457645</v>
+      </c>
+      <c r="I7">
+        <v>9865471236</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1981</v>
+      </c>
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>52</v>
       </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8">
+        <v>457645</v>
+      </c>
+      <c r="I8">
+        <v>9865471236</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD25FF41-E634-4D92-A7B1-A6CDAA00B8DE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/com/bank/Testdata/fb.xlsx
+++ b/src/test/java/com/bank/Testdata/fb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Solution1\Rank\src\test\java\com\bank\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226F0095-7B24-408D-98CB-EF1D9793C791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D195E579-2EBB-45C4-B640-CD507FD67D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5AFDF97E-9F18-4E87-A363-3DB92FBF8F25}"/>
   </bookViews>
@@ -800,7 +800,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/java/com/bank/Testdata/fb.xlsx
+++ b/src/test/java/com/bank/Testdata/fb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Solution1\Rank\src\test\java\com\bank\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D195E579-2EBB-45C4-B640-CD507FD67D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72049411-BB01-4716-87E2-39BC2D12355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5AFDF97E-9F18-4E87-A363-3DB92FBF8F25}"/>
   </bookViews>
@@ -800,7 +800,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/java/com/bank/Testdata/fb.xlsx
+++ b/src/test/java/com/bank/Testdata/fb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Solution1\Rank\src\test\java\com\bank\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72049411-BB01-4716-87E2-39BC2D12355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2138F725-A3E4-4678-833B-7ADC7C9BE4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5AFDF97E-9F18-4E87-A363-3DB92FBF8F25}"/>
   </bookViews>
@@ -800,7 +800,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
